--- a/docs/practitioner-observation-uv-ips.xlsx
+++ b/docs/practitioner-observation-uv-ips.xlsx
@@ -1308,8 +1308,8 @@
   </si>
   <si>
     <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23T00:00:00-06:00"/&gt;
-  &lt;end value="2010-07-01T00:00:00-06:00"/&gt;
+  &lt;start value="2010-03-23T00:00:00-05:00"/&gt;
+  &lt;end value="2010-07-01T00:00:00-05:00"/&gt;
 &lt;/valuePeriod&gt;</t>
   </si>
   <si>
